--- a/Participantes.xlsx
+++ b/Participantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\CEPSUNI\CEPSUNI-SQL3-63999-LMV-19-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A41F5E-C903-4D35-B6C6-A8885778726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5AE5A0-D762-4460-BC17-AF7FBC6E3277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participantes" sheetId="2" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,6 +259,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,22 +636,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B7DCCC-08C0-4F01-A83E-92F6A8927281}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="31.77734375" customWidth="1"/>
-    <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.77734375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -664,8 +668,11 @@
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="7">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,8 +682,11 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -690,8 +700,11 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -707,8 +720,9 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,8 +738,11 @@
       <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -739,8 +756,9 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -756,8 +774,9 @@
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -773,8 +792,9 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -790,8 +810,9 @@
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -807,8 +828,9 @@
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -824,8 +846,9 @@
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -835,8 +858,9 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -850,8 +874,11 @@
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -861,8 +888,9 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -878,8 +906,9 @@
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -895,47 +924,55 @@
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{C5B7DCCC-08C0-4F01-A83E-92F6A8927281}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>